--- a/DANIEL KATEI TIPANKO.xlsx
+++ b/DANIEL KATEI TIPANKO.xlsx
@@ -5567,8 +5567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6322,15 +6322,19 @@
       <c r="E29" s="15">
         <v>5000</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="15">
+        <v>450</v>
+      </c>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="H29" s="15"/>
+        <v>5450</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5450</v>
+      </c>
       <c r="I29" s="17">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J29" s="18"/>
     </row>
@@ -6721,19 +6725,19 @@
       </c>
       <c r="F43" s="16">
         <f t="shared" si="2"/>
-        <v>4600</v>
+        <v>5050</v>
       </c>
       <c r="G43" s="15">
         <f t="shared" si="2"/>
-        <v>321640</v>
+        <v>322090</v>
       </c>
       <c r="H43" s="15">
         <f>SUM(H5:H42)</f>
-        <v>90950</v>
+        <v>96400</v>
       </c>
       <c r="I43" s="15">
         <f t="shared" si="2"/>
-        <v>230690</v>
+        <v>225690</v>
       </c>
       <c r="J43" s="18">
         <f t="shared" si="2"/>
@@ -6809,7 +6813,7 @@
       </c>
       <c r="F48" s="39">
         <f>H43</f>
-        <v>90950</v>
+        <v>96400</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -6852,7 +6856,7 @@
       </c>
       <c r="B51" s="39">
         <f>F43</f>
-        <v>4600</v>
+        <v>5050</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -7108,7 +7112,7 @@
       </c>
       <c r="B66" s="44">
         <f>B48+B51+B52-C53</f>
-        <v>229600</v>
+        <v>230050</v>
       </c>
       <c r="C66" s="44">
         <f>SUM(C55:C65)</f>
@@ -7116,14 +7120,14 @@
       </c>
       <c r="D66" s="44">
         <f>B66-C66</f>
-        <v>141470</v>
+        <v>141920</v>
       </c>
       <c r="E66" s="38" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="44">
         <f>F48+F49+F52-G53</f>
-        <v>52008</v>
+        <v>57458</v>
       </c>
       <c r="G66" s="44">
         <f>SUM(G55:G65)</f>
@@ -7131,7 +7135,7 @@
       </c>
       <c r="H66" s="44">
         <f>F66-G66</f>
-        <v>-36122</v>
+        <v>-30672</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">

--- a/DANIEL KATEI TIPANKO.xlsx
+++ b/DANIEL KATEI TIPANKO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="91">
   <si>
     <t xml:space="preserve">GRACE SANAYIAN </t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>PAID ON 11/12</t>
+  </si>
+  <si>
+    <t>DEPOSIT REFUND</t>
   </si>
 </sst>
 </file>
@@ -5565,16 +5571,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5675,10 +5682,12 @@
         <f>C5+D5+E5+F5</f>
         <v>20000</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="15">
+        <v>20000</v>
+      </c>
       <c r="I5" s="17">
         <f>G5-H5</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -5726,15 +5735,19 @@
       <c r="E7" s="15">
         <v>20000</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16">
+        <v>300</v>
+      </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="H7" s="15"/>
+        <v>20300</v>
+      </c>
+      <c r="H7" s="15">
+        <v>20300</v>
+      </c>
       <c r="I7" s="17">
         <f>G7-H7</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -5809,15 +5822,17 @@
       <c r="E10" s="15">
         <v>4000</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16">
+        <v>300</v>
+      </c>
       <c r="G10" s="15">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="17">
         <f t="shared" ref="I10:I42" si="1">G10-H10</f>
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="J10" s="18"/>
     </row>
@@ -5836,15 +5851,19 @@
       <c r="E11" s="15">
         <v>5000</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16">
+        <v>300</v>
+      </c>
       <c r="G11" s="15">
         <f t="shared" si="0"/>
-        <v>11650</v>
-      </c>
-      <c r="H11" s="15"/>
+        <v>11950</v>
+      </c>
+      <c r="H11" s="15">
+        <v>5850</v>
+      </c>
       <c r="I11" s="17">
         <f t="shared" si="1"/>
-        <v>11650</v>
+        <v>6100</v>
       </c>
       <c r="J11" s="18"/>
     </row>
@@ -5863,17 +5882,19 @@
       <c r="E12" s="15">
         <v>5000</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16">
+        <v>300</v>
+      </c>
       <c r="G12" s="15">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="H12" s="15">
         <v>5000</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J12" s="18"/>
     </row>
@@ -5892,17 +5913,19 @@
       <c r="E13" s="15">
         <v>5000</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="16">
+        <v>300</v>
+      </c>
       <c r="G13" s="15">
         <f t="shared" si="0"/>
-        <v>32710</v>
+        <v>33010</v>
       </c>
       <c r="H13" s="15">
         <v>10000</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="1"/>
-        <v>22710</v>
+        <v>23010</v>
       </c>
       <c r="J13" s="18"/>
     </row>
@@ -5919,15 +5942,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16">
+        <v>300</v>
+      </c>
       <c r="G14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J14" s="18"/>
     </row>
@@ -5946,15 +5971,17 @@
       <c r="E15" s="15">
         <v>5000</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="16">
+        <v>300</v>
+      </c>
       <c r="G15" s="15">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="17">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -5973,17 +6000,19 @@
       <c r="E16" s="15">
         <v>5000</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="16">
+        <v>300</v>
+      </c>
       <c r="G16" s="15">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="H16" s="15">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -6027,15 +6056,17 @@
       <c r="E18" s="15">
         <v>5000</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="16">
+        <v>300</v>
+      </c>
       <c r="G18" s="15">
         <f t="shared" si="0"/>
-        <v>8130</v>
+        <v>8430</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="17">
         <f t="shared" si="1"/>
-        <v>8130</v>
+        <v>8430</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -6054,7 +6085,7 @@
       <c r="E19" s="15">
         <v>5000</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="16">
         <v>300</v>
       </c>
       <c r="G19" s="15">
@@ -6110,15 +6141,19 @@
       <c r="E21" s="15">
         <v>10000</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="15">
+        <v>600</v>
+      </c>
       <c r="G21" s="15">
         <f t="shared" si="0"/>
+        <v>10600</v>
+      </c>
+      <c r="H21" s="15">
         <v>10000</v>
       </c>
-      <c r="H21" s="15"/>
       <c r="I21" s="17">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="J21" s="18"/>
     </row>
@@ -6137,15 +6172,19 @@
       <c r="E22" s="15">
         <v>11000</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="15">
+        <v>750</v>
+      </c>
       <c r="G22" s="15">
         <f t="shared" si="0"/>
-        <v>11150</v>
-      </c>
-      <c r="H22" s="15"/>
+        <v>11900</v>
+      </c>
+      <c r="H22" s="15">
+        <v>11450</v>
+      </c>
       <c r="I22" s="17">
         <f t="shared" si="1"/>
-        <v>11150</v>
+        <v>450</v>
       </c>
       <c r="J22" s="18"/>
     </row>
@@ -6164,15 +6203,19 @@
       <c r="E23" s="15">
         <v>12000</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="15">
+        <v>450</v>
+      </c>
       <c r="G23" s="15">
         <f t="shared" si="0"/>
-        <v>12450</v>
-      </c>
-      <c r="H23" s="15"/>
+        <v>12900</v>
+      </c>
+      <c r="H23" s="15">
+        <v>12000</v>
+      </c>
       <c r="I23" s="17">
         <f t="shared" si="1"/>
-        <v>12450</v>
+        <v>900</v>
       </c>
       <c r="J23" s="18"/>
     </row>
@@ -6213,18 +6256,16 @@
         <f>'NOVEMBER 21'!I25</f>
         <v>13050</v>
       </c>
-      <c r="E25" s="15">
-        <v>12000</v>
-      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15">
         <f t="shared" si="0"/>
-        <v>25050</v>
+        <v>13050</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="17">
         <f t="shared" si="1"/>
-        <v>25050</v>
+        <v>13050</v>
       </c>
       <c r="J25" s="18"/>
     </row>
@@ -6268,15 +6309,19 @@
       <c r="E27" s="15">
         <v>5000</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="15">
+        <v>750</v>
+      </c>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
-        <v>5825</v>
-      </c>
-      <c r="H27" s="15"/>
+        <v>6575</v>
+      </c>
+      <c r="H27" s="15">
+        <v>5450</v>
+      </c>
       <c r="I27" s="17">
         <f t="shared" si="1"/>
-        <v>5825</v>
+        <v>1125</v>
       </c>
       <c r="J27" s="18"/>
     </row>
@@ -6295,15 +6340,19 @@
       <c r="E28" s="15">
         <v>6000</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="15">
+        <v>750</v>
+      </c>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
-        <v>17675</v>
-      </c>
-      <c r="H28" s="15"/>
+        <v>18425</v>
+      </c>
+      <c r="H28" s="15">
+        <v>6000</v>
+      </c>
       <c r="I28" s="17">
         <f t="shared" si="1"/>
-        <v>17675</v>
+        <v>12425</v>
       </c>
       <c r="J28" s="18"/>
     </row>
@@ -6323,18 +6372,18 @@
         <v>5000</v>
       </c>
       <c r="F29" s="15">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
-        <v>5450</v>
+        <v>5750</v>
       </c>
       <c r="H29" s="15">
         <v>5450</v>
       </c>
       <c r="I29" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J29" s="18"/>
     </row>
@@ -6354,18 +6403,18 @@
         <v>5000</v>
       </c>
       <c r="F30" s="15">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="0"/>
-        <v>5450</v>
+        <v>5750</v>
       </c>
       <c r="H30" s="15">
         <v>5450</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J30" s="18"/>
     </row>
@@ -6435,18 +6484,18 @@
         <v>12000</v>
       </c>
       <c r="F33" s="15">
-        <v>1500</v>
+        <v>2550</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>14550</v>
       </c>
       <c r="H33" s="15">
         <v>12000</v>
       </c>
       <c r="I33" s="17">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2550</v>
       </c>
       <c r="J33" s="18"/>
     </row>
@@ -6497,18 +6546,18 @@
         <v>12000</v>
       </c>
       <c r="F35" s="15">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
-        <v>13200</v>
+        <v>13250</v>
       </c>
       <c r="H35" s="15">
         <v>13000</v>
       </c>
       <c r="I35" s="17">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="J35" s="18"/>
     </row>
@@ -6527,17 +6576,19 @@
       <c r="E36" s="15">
         <v>12000</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="15">
+        <v>900</v>
+      </c>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>12900</v>
       </c>
       <c r="H36" s="15">
         <v>1500</v>
       </c>
       <c r="I36" s="17">
         <f t="shared" si="1"/>
-        <v>10500</v>
+        <v>11400</v>
       </c>
       <c r="J36" s="18"/>
     </row>
@@ -6556,15 +6607,19 @@
       <c r="E37" s="15">
         <v>9000</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="15">
+        <v>600</v>
+      </c>
       <c r="G37" s="15">
         <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="H37" s="15">
         <v>9000</v>
       </c>
-      <c r="H37" s="15"/>
       <c r="I37" s="17">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="J37" s="18"/>
     </row>
@@ -6583,15 +6638,19 @@
       <c r="E38" s="15">
         <v>5000</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="15">
+        <v>450</v>
+      </c>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="H38" s="15"/>
+        <v>5450</v>
+      </c>
+      <c r="H38" s="15">
+        <v>5450</v>
+      </c>
       <c r="I38" s="17">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J38" s="18"/>
     </row>
@@ -6610,17 +6669,20 @@
       <c r="E39" s="15">
         <v>5500</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="15">
+        <v>450</v>
+      </c>
       <c r="G39" s="15">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>5950</v>
       </c>
       <c r="H39" s="15">
-        <v>2500</v>
+        <f>2500+2000</f>
+        <v>4500</v>
       </c>
       <c r="I39" s="17">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>1450</v>
       </c>
       <c r="J39" s="18"/>
     </row>
@@ -6639,15 +6701,19 @@
       <c r="E40" s="15">
         <v>5000</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="15">
+        <v>450</v>
+      </c>
       <c r="G40" s="15">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="H40" s="15"/>
+        <v>5450</v>
+      </c>
+      <c r="H40" s="15">
+        <v>5450</v>
+      </c>
       <c r="I40" s="17">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J40" s="18"/>
     </row>
@@ -6666,15 +6732,19 @@
       <c r="E41" s="15">
         <v>5000</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="15">
+        <v>150</v>
+      </c>
       <c r="G41" s="15">
         <f t="shared" si="0"/>
-        <v>6550</v>
-      </c>
-      <c r="H41" s="15"/>
+        <v>6700</v>
+      </c>
+      <c r="H41" s="15">
+        <v>5000</v>
+      </c>
       <c r="I41" s="17">
         <f t="shared" si="1"/>
-        <v>6550</v>
+        <v>1700</v>
       </c>
       <c r="J41" s="18"/>
     </row>
@@ -6721,23 +6791,23 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" ref="E43:J43" si="2">SUM(E5:E42)</f>
-        <v>250000</v>
+        <v>238000</v>
       </c>
       <c r="F43" s="16">
         <f t="shared" si="2"/>
-        <v>5050</v>
+        <v>15750</v>
       </c>
       <c r="G43" s="15">
         <f t="shared" si="2"/>
-        <v>322090</v>
+        <v>320790</v>
       </c>
       <c r="H43" s="15">
         <f>SUM(H5:H42)</f>
-        <v>96400</v>
+        <v>214850</v>
       </c>
       <c r="I43" s="15">
         <f t="shared" si="2"/>
-        <v>225690</v>
+        <v>105940</v>
       </c>
       <c r="J43" s="18">
         <f t="shared" si="2"/>
@@ -6804,7 +6874,7 @@
       </c>
       <c r="B48" s="39">
         <f>E43</f>
-        <v>250000</v>
+        <v>238000</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -6813,12 +6883,12 @@
       </c>
       <c r="F48" s="39">
         <f>H43</f>
-        <v>96400</v>
+        <v>214850</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>27</v>
       </c>
@@ -6838,7 +6908,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>6</v>
       </c>
@@ -6850,13 +6920,13 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="39">
         <f>F43</f>
-        <v>5050</v>
+        <v>15750</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -6865,7 +6935,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>70</v>
       </c>
@@ -6880,7 +6950,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>28</v>
       </c>
@@ -6889,7 +6959,7 @@
       </c>
       <c r="C53" s="39">
         <f>B53*B48</f>
-        <v>25000</v>
+        <v>23800</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25" t="s">
@@ -6900,11 +6970,11 @@
       </c>
       <c r="G53" s="39">
         <f>F53*B48</f>
-        <v>25000</v>
+        <v>23800</v>
       </c>
       <c r="H53" s="25"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>29</v>
       </c>
@@ -6920,7 +6990,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
         <v>31</v>
       </c>
@@ -6939,7 +7009,7 @@
       <c r="H55" s="25"/>
       <c r="I55" s="33"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>71</v>
       </c>
@@ -6955,7 +7025,7 @@
       </c>
       <c r="H56" s="25"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>72</v>
       </c>
@@ -6973,7 +7043,7 @@
       </c>
       <c r="H57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>73</v>
       </c>
@@ -6991,7 +7061,7 @@
       </c>
       <c r="H58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
         <v>74</v>
       </c>
@@ -7009,7 +7079,7 @@
       </c>
       <c r="H59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
         <v>75</v>
       </c>
@@ -7027,7 +7097,7 @@
       </c>
       <c r="H60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>9</v>
       </c>
@@ -7045,55 +7115,64 @@
         <v>9130</v>
       </c>
       <c r="H61" s="25"/>
-      <c r="J61" s="29">
-        <f>C56+C57+C58+C59</f>
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="43">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="43">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="H62" s="25"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="43">
-        <v>5000</v>
+        <v>148820</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="41" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="43">
-        <v>5000</v>
+        <v>148820</v>
       </c>
       <c r="H63" s="25"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+      <c r="L63">
+        <f>10000-750</f>
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
+        <v>90</v>
+      </c>
       <c r="B64" s="25"/>
-      <c r="C64" s="43"/>
+      <c r="C64" s="43">
+        <v>9550</v>
+      </c>
       <c r="D64" s="25"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="41" t="s">
+        <v>90</v>
+      </c>
       <c r="F64" s="25"/>
-      <c r="G64" s="43"/>
+      <c r="G64" s="43">
+        <v>9550</v>
+      </c>
       <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -7112,30 +7191,30 @@
       </c>
       <c r="B66" s="44">
         <f>B48+B51+B52-C53</f>
-        <v>230050</v>
+        <v>229950</v>
       </c>
       <c r="C66" s="44">
         <f>SUM(C55:C65)</f>
-        <v>88130</v>
+        <v>231500</v>
       </c>
       <c r="D66" s="44">
         <f>B66-C66</f>
-        <v>141920</v>
+        <v>-1550</v>
       </c>
       <c r="E66" s="38" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="44">
         <f>F48+F49+F52-G53</f>
-        <v>57458</v>
+        <v>177108</v>
       </c>
       <c r="G66" s="44">
         <f>SUM(G55:G65)</f>
-        <v>88130</v>
+        <v>231500</v>
       </c>
       <c r="H66" s="44">
         <f>F66-G66</f>
-        <v>-30672</v>
+        <v>-54392</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
